--- a/Lista_Precios - CORDLESS MACHINES.xlsx
+++ b/Lista_Precios - CORDLESS MACHINES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Apps\Plan Recambio APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A8B04-ED60-4627-9643-842CB42EE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95EB11E-5D16-40A6-8D1B-EE3C7B9EFC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4AAD41D2-42A3-4124-AB7C-2BC8428DFD17}"/>
+    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{4AAD41D2-42A3-4124-AB7C-2BC8428DFD17}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,31 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
-    <t>CORDLESS MACHINES</t>
-  </si>
-  <si>
     <t>Seq</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Technical detailing</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Charger</t>
-  </si>
-  <si>
-    <t>Package</t>
   </si>
   <si>
     <t>ORDER QUANTITY un (Next 12 montsh)</t>
@@ -421,6 +397,30 @@
   </si>
   <si>
     <t>Precio</t>
+  </si>
+  <si>
+    <t>Cargador</t>
+  </si>
+  <si>
+    <t>Presentación</t>
+  </si>
+  <si>
+    <t>Batería</t>
+  </si>
+  <si>
+    <t>Características</t>
+  </si>
+  <si>
+    <t>Potencia</t>
+  </si>
+  <si>
+    <t>Voltaje</t>
+  </si>
+  <si>
+    <t>Línea</t>
+  </si>
+  <si>
+    <t>Power Tools</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1259,7 +1259,7 @@
     <col min="6" max="6" width="8.42578125" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1268,7 +1268,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="69" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1284,40 +1284,40 @@
     </row>
     <row r="2" spans="1:12" ht="45.75" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="192.75" thickTop="1" thickBot="1">
@@ -1325,31 +1325,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K3" s="8">
         <v>200</v>
@@ -1363,31 +1363,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K4" s="12">
         <v>250</v>
@@ -1401,31 +1401,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K5" s="12">
         <v>300</v>
@@ -1439,31 +1439,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="J6" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K6" s="12">
         <v>75</v>
@@ -1477,31 +1477,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K7" s="12">
         <v>200</v>
@@ -1515,31 +1515,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K8" s="12">
         <v>200</v>
@@ -1553,31 +1553,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K9" s="12">
         <v>200</v>
@@ -1591,31 +1591,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J10" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K10" s="12">
         <v>100</v>
@@ -1629,31 +1629,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J11" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K11" s="12">
         <v>200</v>
@@ -1667,31 +1667,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="J12" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K12" s="12">
         <v>50</v>
@@ -1705,31 +1705,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K13" s="12">
         <v>50</v>

--- a/Lista_Precios - CORDLESS MACHINES.xlsx
+++ b/Lista_Precios - CORDLESS MACHINES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Apps\Plan Recambio APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95EB11E-5D16-40A6-8D1B-EE3C7B9EFC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA2BD8-2D74-480D-B53C-AFE42B8FF473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{4AAD41D2-42A3-4124-AB7C-2BC8428DFD17}"/>
   </bookViews>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
-  <si>
-    <t>Seq</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>ORDER QUANTITY un (Next 12 montsh)</t>
-  </si>
-  <si>
-    <t>REDSTRIPE POWERTOOLS</t>
   </si>
   <si>
     <t>12V</t>
@@ -317,11 +311,6 @@
   </si>
   <si>
     <t>TALADRO ATORNILLADOR
-ABSR 12 COMPACT
-12V / 2.0AH</t>
-  </si>
-  <si>
-    <t>TALADRO ATORNILLADOR
 ABSR 20 COMBI
 20 V / 2.0AH</t>
   </si>
@@ -417,10 +406,8 @@
     <t>Voltaje</t>
   </si>
   <si>
-    <t>Línea</t>
-  </si>
-  <si>
-    <t>Power Tools</t>
+    <t>TALADRO ATORNILLADOR ABSR 12 COMPACT
+12V / 2.0AH</t>
   </si>
 </sst>
 </file>
@@ -430,7 +417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,12 +443,6 @@
     </font>
     <font>
       <b/>
-      <sz val="48"/>
-      <color theme="0"/>
-      <name val="Wuerth Extra Bold Cond"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color theme="0"/>
       <name val="Wuerth Extra Bold Cond"/>
@@ -474,13 +455,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wuerth Book"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Wuerth Book"/>
@@ -571,13 +545,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Wuerth Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color theme="0"/>
-      <name val="Wuerth Extra Bold Cond"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -600,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -642,15 +609,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -664,96 +622,78 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,15 +719,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>704849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>595374</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>942975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -853,15 +793,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>665535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>1061002</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1245,506 +1185,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9384125A-0E6C-4EE3-AA85-21B98531D0D9}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="69" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+    <row r="1" spans="1:10" ht="45.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="45.75" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:10" ht="192.75" thickTop="1" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6">
+        <v>200</v>
+      </c>
+      <c r="J2" s="19">
+        <v>4165.5119999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="153.75" customHeight="1" thickTop="1">
+      <c r="A3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9">
+        <v>250</v>
+      </c>
+      <c r="J3" s="19">
+        <v>6323.304000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="191.25">
+      <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>57</v>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9">
+        <v>300</v>
+      </c>
+      <c r="J4" s="19">
+        <v>6607.2240000000011</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="192.75" thickTop="1" thickBot="1">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="25" t="s">
+    <row r="5" spans="1:10" ht="267.75">
+      <c r="A5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I5" s="9">
+        <v>75</v>
+      </c>
+      <c r="J5" s="19">
+        <v>10669.984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="337.5">
+      <c r="A6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="9">
         <v>200</v>
       </c>
-      <c r="L3" s="23">
-        <v>4165.5119999999997</v>
+      <c r="J6" s="19">
+        <v>10125.128000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="153.75" customHeight="1" thickTop="1">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="10" t="s">
+    <row r="7" spans="1:10" ht="229.5">
+      <c r="A7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="12">
-        <v>250</v>
-      </c>
-      <c r="L4" s="23">
-        <v>6323.304000000001</v>
+      <c r="I7" s="9">
+        <v>200</v>
+      </c>
+      <c r="J7" s="19">
+        <v>10157.575999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="191.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
+    <row r="8" spans="1:10" ht="310.5">
+      <c r="A8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="12">
-        <v>300</v>
-      </c>
-      <c r="L5" s="23">
-        <v>6607.2240000000011</v>
+      <c r="I8" s="9">
+        <v>200</v>
+      </c>
+      <c r="J8" s="19">
+        <v>10867.376</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="267.75">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="26" t="s">
+    <row r="9" spans="1:10" ht="297">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="B9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9">
+        <v>100</v>
+      </c>
+      <c r="J9" s="19">
+        <v>24803.521599999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="242.25">
+      <c r="A10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9">
+        <v>200</v>
+      </c>
+      <c r="J10" s="19">
+        <v>9338.2639999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="270.75">
+      <c r="A11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9">
         <v>50</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="J11" s="19">
+        <v>12168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="202.5">
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="12">
-        <v>75</v>
-      </c>
-      <c r="L6" s="23">
-        <v>10669.984</v>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9">
+        <v>50</v>
+      </c>
+      <c r="J12" s="19">
+        <v>13390.208000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="337.5">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="12">
-        <v>200</v>
-      </c>
-      <c r="L7" s="23">
-        <v>10125.128000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="229.5">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="12">
-        <v>200</v>
-      </c>
-      <c r="L8" s="23">
-        <v>10157.575999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="310.5">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="12">
-        <v>200</v>
-      </c>
-      <c r="L9" s="23">
-        <v>10867.376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="297">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="12">
-        <v>100</v>
-      </c>
-      <c r="L10" s="23">
-        <v>24803.521599999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="242.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="12">
-        <v>200</v>
-      </c>
-      <c r="L11" s="23">
-        <v>9338.2639999999992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="270.75">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="12">
-        <v>50</v>
-      </c>
-      <c r="L12" s="23">
-        <v>12168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="202.5">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="12">
-        <v>50</v>
-      </c>
-      <c r="L13" s="23">
-        <v>13390.208000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="L14" s="22"/>
+    <row r="13" spans="1:10">
+      <c r="J13" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
